--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3046442.88398556</v>
+        <v>3150622.51843663</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7611701629562</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>34.862969512163</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247734</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>38.37223532491776</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.30204625080117</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>36.95558184798627</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>238.326226843778</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>69.5800738191295</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>227.1433693991568</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>105.4771979831552</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>233.9232825284299</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>126.7562794369317</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>80.00124118081875</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>59.968388021846</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>140.176011444184</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>53.82913822150063</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.04917322725547</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>20.92847288552895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>178.906041312462</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.2360561910037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>137.5213979579545</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3135037226523</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>107.1685137621105</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>92.41552299048902</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2998,10 +3000,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>70.80302811979811</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>11.56087338713452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>105.9742079424032</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>143.7703193541476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>174.8493187430275</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.70843787977307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3949,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8436125514028</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>179.2445652598089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1969.423143692379</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1969.423143692379</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D2" t="n">
-        <v>1611.157445085628</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E2" t="n">
-        <v>1225.369192487384</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>814.3832876977763</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>399.3108375427727</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>101.72723715154</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993392</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2746.162315732312</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2356.0229837565</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2191.895220967755</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.959038039848</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.959038039848</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005522</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>2623.050455131166</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>2601.533236696013</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X4" t="n">
-        <v>2373.543685797995</v>
+        <v>906.9191734699996</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.543685797995</v>
+        <v>686.1265943264694</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605788</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.300932605788</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.300932605788</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1175.300932605788</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>764.3150278161809</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2425776611773</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.90077266991</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4637,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.8811108217975</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1767.181187998415</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1545.414572567941</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1256.311705693585</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1256.311705693585</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1256.311705693585</v>
+        <v>939.8893561686509</v>
       </c>
       <c r="X7" t="n">
-        <v>1028.322154795567</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.5295756520372</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250372</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5134590629166</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C10" t="n">
-        <v>459.5772761350097</v>
+        <v>906.1611548583255</v>
       </c>
       <c r="D10" t="n">
-        <v>459.5772761350097</v>
+        <v>756.0445154459898</v>
       </c>
       <c r="E10" t="n">
-        <v>459.5772761350097</v>
+        <v>608.1314218635966</v>
       </c>
       <c r="F10" t="n">
-        <v>459.5772761350097</v>
+        <v>461.2414743656863</v>
       </c>
       <c r="G10" t="n">
-        <v>291.8744395097286</v>
+        <v>293.5386377404052</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>147.321450958263</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.944053934704</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.954503036686</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.1619238931563</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5044,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>372.4964262156755</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925917</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579761</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>397.472332575583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2390.347757088083</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2207.492922742988</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>926.7250219692613</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>2726.914133601551</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>3087.702309109633</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>2878.328163333973</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>3475.706650960525</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>4103.304614515131</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3296.6994343069</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>3127.763251378994</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4471.231687421535</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>4216.547199215648</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3927.130029178687</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3699.14047828067</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y22" t="n">
-        <v>3478.34789913714</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5983,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
         <v>779.6143379232836</v>
@@ -6139,10 +6141,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,34 +6244,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651099</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310857</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728464</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.768344230553</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421536</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765734</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559847</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522886</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624869</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481339</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6485,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2366.70500750246</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2700.62977967368</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>3195.955385889439</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>3793.333873515991</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
         <v>489.9894131830887</v>
@@ -6610,13 +6612,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2308.399169610645</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.797704633586</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1799.722477977784</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1545.037989771897</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1255.620819734936</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1027.631268836919</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.8386896933887</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2977.325134535464</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>2808.388951607557</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>2658.272312195222</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309227</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.755729407251</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>3379.766178509234</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>3158.973599365704</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7026,13 +7028,13 @@
         <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434716</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155647</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4447.171975173191</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4227.570510196132</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>3938.49528354033</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>3683.810795334443</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>3394.393625297483</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>3394.393625297483</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>3173.601046153953</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,34 +7411,34 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.028593415444</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7639,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>2644.045655650153</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.07903472198</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961267</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.8635921600913</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.257951202385129</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>91.59190980143062</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.32607348286621</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>125.5054897610402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>107.2784330767821</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.37941682720867</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>88.18825743108266</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.93331737597552</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>111.4161395899843</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>74.83129810813881</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>110.2232578818465</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.8730892594346</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>112.6104454096916</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.845153664064753</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.176967258617054</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>144.5956654067399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.5618377758854649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>107.2784330767821</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.0979940139</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26454,10 +26456,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811060.9805409312</v>
+        <v>-811060.9805409323</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866605</v>
+        <v>517683.7651866609</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866608</v>
+        <v>517683.7651866603</v>
       </c>
       <c r="E6" t="n">
-        <v>266111.4749856503</v>
+        <v>266111.4749856504</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930059</v>
+        <v>591523.9367930058</v>
       </c>
       <c r="G6" t="n">
+        <v>591523.9367930058</v>
+      </c>
+      <c r="H6" t="n">
+        <v>591523.9367930058</v>
+      </c>
+      <c r="I6" t="n">
+        <v>591523.9367930056</v>
+      </c>
+      <c r="J6" t="n">
+        <v>373992.734395728</v>
+      </c>
+      <c r="K6" t="n">
         <v>591523.9367930054</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>591523.9367930057</v>
+      </c>
+      <c r="M6" t="n">
+        <v>506468.9088574937</v>
+      </c>
+      <c r="N6" t="n">
         <v>591523.9367930054</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>591523.9367930057</v>
+      </c>
+      <c r="P6" t="n">
         <v>591523.9367930058</v>
-      </c>
-      <c r="J6" t="n">
-        <v>373992.7343957282</v>
-      </c>
-      <c r="K6" t="n">
-        <v>591523.9367930053</v>
-      </c>
-      <c r="L6" t="n">
-        <v>591523.9367930058</v>
-      </c>
-      <c r="M6" t="n">
-        <v>506468.9088574934</v>
-      </c>
-      <c r="N6" t="n">
-        <v>591523.9367930056</v>
-      </c>
-      <c r="O6" t="n">
-        <v>591523.9367930058</v>
-      </c>
-      <c r="P6" t="n">
-        <v>591523.936793006</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>230.1691999093056</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.713960260762981</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>141.4597448570195</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.2209520857898</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>328.3173099230213</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>56.28153754354244</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120.1889515123124</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>59.37962893743423</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>135.8078181500392</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.99873547738908</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>16.35117922901934</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.737409814777962e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="21">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685829</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983572</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>200.3460366764701</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32482,7 +32484,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
@@ -32546,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32557,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043726</v>
@@ -33026,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>202.2352659288684</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33257,28 +33259,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>261.5336801130319</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>339.9772972286967</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34208,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>362.8934092184357</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951686</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597635</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942239</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316905</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>57.74979223202568</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36454,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36674,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36691,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>68.26085851453816</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>471.5003028244903</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37630,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>197.8432633066783</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>224.3390294385616</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529446</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150622.51843663</v>
+        <v>3146609.908422639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>151.7611701629562</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>59.3299629153284</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.37223532491776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>167.8621994221807</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>36.95558184798627</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.0870494265623</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>227.1433693991568</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.4771979831552</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145761</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>43.86344459103412</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>80.00124118081875</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.968388021846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>53.82913822150063</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>178.906041312462</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>137.5213979579545</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.1685137621105</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>92.41552299048902</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.9742079424032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>174.8493187430275</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>80.33989744909022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>216.8436125514028</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033366</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4077790033366</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.3667606649364</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C4" t="n">
-        <v>478.4305777370295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368017</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368017</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699996</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.1265943264694</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>939.8893561686509</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>711.8998052706336</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.8998052706336</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1075.097337786232</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="C10" t="n">
-        <v>906.1611548583255</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="D10" t="n">
-        <v>756.0445154459898</v>
+        <v>354.3614900838935</v>
       </c>
       <c r="E10" t="n">
-        <v>608.1314218635966</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>461.2414743656863</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>293.5386377404052</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>147.321450958263</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>1477.538381760002</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y10" t="n">
-        <v>1256.745802616472</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>372.4964262156755</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>867.8220324314344</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>214.9229991561127</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561127</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718716</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703119</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579761</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>397.472332575583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109633</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903526</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333973</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.706650960525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>4103.304614515131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445482</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1005.373692624026</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362682</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>129.5921236250094</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2366.70500750246</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2700.62977967368</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3195.955385889439</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3793.333873515991</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4420.931837070598</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6855,55 +6855,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153953</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4447.171975173191</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4227.570510196132</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>3938.49528354033</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3683.810795334443</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3394.393625297483</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3394.393625297483</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3173.601046153953</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.028593415444</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.953366759641</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.953366759641</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1399.536196722681</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1171.546645824663</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811332</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2644.045655650153</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3241.424143276705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.8635921600913</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.59190980143062</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>107.2784330767821</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>88.18825743108266</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.4161395899843</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8770068749567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>74.83129810813881</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>186.1428431935229</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.6104454096916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>6.176967258617054</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5618377758854649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>43.2652634529499</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.0979940139</v>
+        <v>719062.097994014</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26349,13 +26349,13 @@
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319407</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319404</v>
-      </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26444,10 +26444,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26456,10 +26456,10 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811060.9805409323</v>
+        <v>-811060.9805409322</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866609</v>
+        <v>517683.7651866608</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866603</v>
+        <v>517683.7651866607</v>
       </c>
       <c r="E6" t="n">
-        <v>266111.4749856504</v>
+        <v>265764.0957312938</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386486</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386491</v>
       </c>
       <c r="H6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386487</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930056</v>
+        <v>591176.5575386485</v>
       </c>
       <c r="J6" t="n">
-        <v>373992.734395728</v>
+        <v>373645.3551413714</v>
       </c>
       <c r="K6" t="n">
-        <v>591523.9367930054</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="L6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386486</v>
       </c>
       <c r="M6" t="n">
-        <v>506468.9088574937</v>
+        <v>506121.5296031368</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930054</v>
+        <v>591176.5575386487</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386485</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386488</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>230.1691999093056</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>310.4011377631406</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.4597448570195</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>118.6607989144103</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>328.3173099230213</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.6440512519067</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>59.37962893743423</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.2566436803253</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414775</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>102.570518055535</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.35117922901934</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.737409814777962e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.3926848685829</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>247.3820194983572</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>261.5336801130319</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>362.8934092184357</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>217.8799919951686</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.5512458942239</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>120.5443928316905</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>134.6960534463653</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>224.3390294385616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>79.32561221529446</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3146609.908422639</v>
+        <v>3148370.438725424</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>129.9950902990167</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>59.3299629153284</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>201.4151893939139</v>
       </c>
       <c r="W4" t="n">
-        <v>167.8621994221807</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.0870494265623</v>
+        <v>136.0870494265628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>295.0200036045163</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>43.86344459103412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>138.5369172686238</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>36.22494343870321</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.30034983101368</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.63824106824919</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>65.99480013030511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2107.513093752762</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2494.112933816884</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4476,16 +4476,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,13 +4524,13 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="W4" t="n">
-        <v>710.6664589680076</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="X4" t="n">
-        <v>710.6664589680076</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y4" t="n">
         <v>710.6664589680076</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,13 +4600,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
         <v>2824.323010322666</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,7 +4761,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1500.866776612725</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1115.078524014481</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>704.092619224873</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4947,19 +4947,19 @@
         <v>354.3614900838935</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>206.4483965015004</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.0424953278208</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>620.6249953635655</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>473.7350478656551</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>306.5389485805351</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>164.8271174227332</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2425.106274420413</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.890260236569</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.473090199608</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>961.4835393015907</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>740.6909601580605</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>10.96548648755184</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.73700564187249</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
@@ -26441,25 +26441,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811060.9805409322</v>
+        <v>-811060.9805409319</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866608</v>
+        <v>517683.7651866607</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866607</v>
+        <v>517683.7651866606</v>
       </c>
       <c r="E6" t="n">
-        <v>265764.0957312938</v>
+        <v>266076.7370602147</v>
       </c>
       <c r="F6" t="n">
-        <v>591176.5575386486</v>
+        <v>591489.1988675697</v>
       </c>
       <c r="G6" t="n">
-        <v>591176.5575386491</v>
+        <v>591489.1988675704</v>
       </c>
       <c r="H6" t="n">
-        <v>591176.5575386487</v>
+        <v>591489.1988675698</v>
       </c>
       <c r="I6" t="n">
-        <v>591176.5575386485</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="J6" t="n">
-        <v>373645.3551413714</v>
+        <v>373957.9964702923</v>
       </c>
       <c r="K6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="L6" t="n">
-        <v>591176.5575386486</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="M6" t="n">
-        <v>506121.5296031368</v>
+        <v>506434.1709320582</v>
       </c>
       <c r="N6" t="n">
-        <v>591176.5575386487</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="O6" t="n">
-        <v>591176.5575386485</v>
+        <v>591489.19886757</v>
       </c>
       <c r="P6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675701</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>235.2778014719909</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>310.4011377631406</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50.72245392991411</v>
       </c>
       <c r="W4" t="n">
-        <v>118.6607989144103</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6440512519067</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>115.9017220489371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>102.570518055535</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.218097645697014</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.347560930427958e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918227</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>163.1438255932938</v>
@@ -32335,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32560,31 +32560,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>90.01966967204032</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774924</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>20.54758114884936</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
